--- a/biology/Zoologie/Formation_de_Jiufotang/Formation_de_Jiufotang.xlsx
+++ b/biology/Zoologie/Formation_de_Jiufotang/Formation_de_Jiufotang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La formation de Jiufotang est une formation géologique d'âge Crétacé inférieur qui affleure dans la province de Liaoning (et en particulier dans la région de la ville-préfecture de Chaoyang), située dans le nord-est de la Chine. 
-Elle est célèbre pour ses fossiles terrestres, souvent très bien conservés, en particulier ceux d'oiseaux primitifs, de dinosaures à plumes et de ptérosaures, ainsi que des mammifères et plantes à fleurs primitifs[1]. C'est l'une des formations géologiques ayant enregistré, grâce à ses fossiles, le réputé biote de Jehol.
+Elle est célèbre pour ses fossiles terrestres, souvent très bien conservés, en particulier ceux d'oiseaux primitifs, de dinosaures à plumes et de ptérosaures, ainsi que des mammifères et plantes à fleurs primitifs. C'est l'une des formations géologiques ayant enregistré, grâce à ses fossiles, le réputé biote de Jehol.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formation de Jiufotang représente la partie supérieure du « groupe de Jehol » défini par Gu en 1962 et 1963 comme un ensemble de formations géologiques incluant les différentes « couches de Jehol » : charbons, schistes bitumineux et roches volcaniques[2].
-Elle est superposée aux couches (plus anciennes) de la formation d'Yixian, dont les datations radiométriques obtenues par S. C. Chang et ses collègues en 2009 donnent un âge situé entre 122,1 et 129,7 Ma, de l'Aptien inférieur à l'Hauterivien terminal[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation de Jiufotang représente la partie supérieure du « groupe de Jehol » défini par Gu en 1962 et 1963 comme un ensemble de formations géologiques incluant les différentes « couches de Jehol » : charbons, schistes bitumineux et roches volcaniques.
+Elle est superposée aux couches (plus anciennes) de la formation d'Yixian, dont les datations radiométriques obtenues par S. C. Chang et ses collègues en 2009 donnent un âge situé entre 122,1 et 129,7 Ma, de l'Aptien inférieur à l'Hauterivien terminal.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une séquence d'alternance de dépôts d'environnements marins et non-marins (fluvio-lacustre et volcanique -tufs, laves et pyroclastites-). Il s'agit de grès et de siltstones intercalés avec de nombreux niveaux d'argiles et de calcaires fins, admettant de fréquents intervalles de roches volcaniques. Leur datation est contrainte à la fois par la biostratigraphie des fossiles marins et par les datations radiométriques des niveaux volcaniques[1],[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une séquence d'alternance de dépôts d'environnements marins et non-marins (fluvio-lacustre et volcanique -tufs, laves et pyroclastites-). Il s'agit de grès et de siltstones intercalés avec de nombreux niveaux d'argiles et de calcaires fins, admettant de fréquents intervalles de roches volcaniques. Leur datation est contrainte à la fois par la biostratigraphie des fossiles marins et par les datations radiométriques des niveaux volcaniques.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Datation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La formation de Jiufotang a pu être datée en 2004 par datation radiométrique argon-argon (couple 39Ar-40Ar) sur des feldspaths potassiques (sanidine et orthoclase) provenant de tufs volcaniques intercalés dans les argiles fossilifères de la formation sur le site de Shangheshou[1]. L'âge obtenu pour ces niveaux stratigraphiques est de 120,3 ± 0,7 MaMa[1], ce qui les situe dans l'Aptien inférieur.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La formation de Jiufotang a pu être datée en 2004 par datation radiométrique argon-argon (couple 39Ar-40Ar) sur des feldspaths potassiques (sanidine et orthoclase) provenant de tufs volcaniques intercalés dans les argiles fossilifères de la formation sur le site de Shangheshou. L'âge obtenu pour ces niveaux stratigraphiques est de 120,3 ± 0,7 MaMa, ce qui les situe dans l'Aptien inférieur.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Paléobiote de Jehol</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ensemble des trois principales formations géologiques du « Groupe de Jehol » a enregistré dans ses sédiments les fossiles de la faune et la flore qui vivaient à cette époque, ce paléo-écosystème est connu sous le nom de biote ou paléobiote de Jehol[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ensemble des trois principales formations géologiques du « Groupe de Jehol » a enregistré dans ses sédiments les fossiles de la faune et la flore qui vivaient à cette époque, ce paléo-écosystème est connu sous le nom de biote ou paléobiote de Jehol.
 </t>
         </is>
       </c>
@@ -640,17 +660,51 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Choristodera (« reptiles » semi-aquatiques)
-Poissons
-Mammifères
-Plusieurs spécimens de mammifères primitifs ont été découverts, mais un seul a été décrit formellement[8].
-Dinosaures ornithischiens
-Ptérosaures
-Dinosaures saurischiens
-Une espèce non nommée de titanosaures est également présente dans la formation[13].
-énanthiornithes
-euornithes
-théropodes divers</t>
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs spécimens de mammifères primitifs ont été découverts, mais un seul a été décrit formellement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Formation_de_Jiufotang</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formation_de_Jiufotang</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dinosaures saurischiens</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une espèce non nommée de titanosaures est également présente dans la formation.
+</t>
         </is>
       </c>
     </row>
